--- a/biology/Botanique/Groppello_di_Santo_Stefano/Groppello_di_Santo_Stefano.xlsx
+++ b/biology/Botanique/Groppello_di_Santo_Stefano/Groppello_di_Santo_Stefano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le groppello di Santo Stefano  est un cépage italien de raisins noirs.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cépage Groppello di Santo Stefano provient du nord de l’Italie. 
 Il est classé recommandé en province de Brescia dans la région Lombardie et en province de Massa-Carrara en Toscane. En 1998, sa culture couvrait une superficie de 28 ha. 
@@ -546,7 +560,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau cotonneux blanc à liseré carminé.
 Jeunes feuilles aranéeuses, jaunâtre.
@@ -578,7 +594,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de quatrième époque : 40  jours après le chasselas.
 </t>
@@ -609,7 +627,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes  sont moyennes et les baies sont de taille moyenne. La grappe est cylindro-conique et très compacte. Le cépage est vigoureux à production régulière. 
 </t>
@@ -640,7 +660,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le groppello gentile est connu sous le nom de gropèl, gropèla nera,  groppèl, groppello, groppello della Val di Non, grupèl
 </t>
